--- a/subDM/metricasDistancia.xlsx
+++ b/subDM/metricasDistancia.xlsx
@@ -14,7 +14,14 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$F$3:$F$168</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$G$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$K$3:$K$168</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -319,7 +326,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -400,7 +406,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -601,7 +606,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -682,7 +686,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -859,6 +862,652 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Rango maximo de intensidad</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{A9B1A5DA-8630-490B-8024-250F27112B6D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>Sin normalizar</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{00000001-F808-49C1-BC29-799CABCB0F3C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>Normalización Min-Max</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="1" meanMarker="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="1"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="270" min="115"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:ea typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Segoe UI Light" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="373">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="sq" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9575" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="0" vert="horz"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:bodyPr rot="-60000000" vert="horz"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -919,6 +1568,74 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Gráfico 4"/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CO" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1189,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" topLeftCell="T183" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z190" sqref="Z190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19625,123 +20342,123 @@
         <v>271.04920686368882</v>
       </c>
       <c r="G175" s="16">
-        <f t="shared" ref="G175:AJ175" si="2">G172+G173</f>
+        <f>G172+G173</f>
         <v>0.7259582795431313</v>
       </c>
       <c r="H175" s="16">
-        <f t="shared" ref="H175:AJ175" si="3">H172-H173</f>
+        <f>H172-H173</f>
         <v>0.38762353865108612</v>
       </c>
       <c r="I175" s="16">
-        <f t="shared" si="3"/>
+        <f>I172-I173</f>
         <v>5592.6306587738218</v>
       </c>
       <c r="J175" s="13">
-        <f t="shared" ref="J175:AJ175" si="4">J172+J173</f>
+        <f>J172+J173</f>
         <v>0</v>
       </c>
       <c r="K175" s="13">
-        <f t="shared" si="4"/>
+        <f>K172+K173</f>
         <v>255</v>
       </c>
       <c r="L175" s="16">
-        <f t="shared" si="4"/>
+        <f>L172+L173</f>
         <v>1.0664888708341205</v>
       </c>
       <c r="M175" s="16">
-        <f t="shared" ref="M175:AJ175" si="5">M172-M173</f>
+        <f>M172-M173</f>
         <v>-5.518631267192553E-2</v>
       </c>
       <c r="N175" s="16">
-        <f t="shared" si="5"/>
+        <f>N172-N173</f>
         <v>-12845.956934157701</v>
       </c>
       <c r="O175" s="13">
-        <f t="shared" ref="O175:AJ175" si="6">O172+O173</f>
+        <f>O172+O173</f>
         <v>0</v>
       </c>
       <c r="P175" s="13">
-        <f t="shared" si="6"/>
+        <f>P172+P173</f>
         <v>266.35394147229687</v>
       </c>
       <c r="Q175" s="16">
-        <f t="shared" si="6"/>
+        <f>Q172+Q173</f>
         <v>1</v>
       </c>
       <c r="R175" s="16">
-        <f t="shared" ref="R175:AJ175" si="7">R172-R173</f>
+        <f>R172-R173</f>
         <v>1</v>
       </c>
       <c r="S175" s="16">
-        <f t="shared" si="7"/>
+        <f>S172-S173</f>
         <v>0.29315209627201855</v>
       </c>
       <c r="T175" s="13">
-        <f t="shared" ref="T175:AJ175" si="8">T172+T173</f>
+        <f>T172+T173</f>
         <v>0</v>
       </c>
       <c r="U175" s="13">
-        <f t="shared" si="8"/>
+        <f>U172+U173</f>
         <v>1</v>
       </c>
       <c r="V175" s="16">
-        <f t="shared" si="8"/>
+        <f>V172+V173</f>
         <v>0.73669962499296748</v>
       </c>
       <c r="W175" s="16">
-        <f t="shared" ref="W175:AJ175" si="9">W172-W173</f>
+        <f>W172-W173</f>
         <v>0.38324360654098066</v>
       </c>
       <c r="X175" s="16">
-        <f t="shared" si="9"/>
+        <f>X172-X173</f>
         <v>4457.8829440299305</v>
       </c>
       <c r="Y175" s="13">
-        <f t="shared" ref="Y175:AJ175" si="10">Y172+Y173</f>
+        <f>Y172+Y173</f>
         <v>0</v>
       </c>
       <c r="Z175" s="13">
-        <f t="shared" si="10"/>
+        <f>Z172+Z173</f>
         <v>255</v>
       </c>
       <c r="AA175" s="16">
-        <f t="shared" si="10"/>
+        <f>AA172+AA173</f>
         <v>0.85680037698632916</v>
       </c>
       <c r="AB175" s="16">
-        <f t="shared" ref="AB175:AJ175" si="11">AB172-AB173</f>
+        <f>AB172-AB173</f>
         <v>0.32020838619676534</v>
       </c>
       <c r="AC175" s="16">
-        <f t="shared" si="11"/>
+        <f>AC172-AC173</f>
         <v>10554.204959794413</v>
       </c>
       <c r="AD175" s="13">
-        <f t="shared" ref="AD175:AJ175" si="12">AD172+AD173</f>
+        <f>AD172+AD173</f>
         <v>0</v>
       </c>
       <c r="AE175" s="13">
-        <f t="shared" si="12"/>
+        <f>AE172+AE173</f>
         <v>254.48508029277684</v>
       </c>
       <c r="AF175" s="16">
-        <f t="shared" si="12"/>
+        <f>AF172+AF173</f>
         <v>0.85680037698632916</v>
       </c>
       <c r="AG175" s="16">
-        <f t="shared" ref="AG175:AJ175" si="13">AG172-AG173</f>
+        <f>AG172-AG173</f>
         <v>0.32020838619676534</v>
       </c>
       <c r="AH175" s="16">
-        <f t="shared" si="13"/>
+        <f>AH172-AH173</f>
         <v>10554.204959794413</v>
       </c>
       <c r="AI175" s="13">
-        <f t="shared" ref="AI175:AJ175" si="14">AI172+AI173</f>
+        <f>AI172+AI173</f>
         <v>0</v>
       </c>
       <c r="AJ175" s="13">
-        <f t="shared" si="14"/>
+        <f>AJ172+AJ173</f>
         <v>254.48508029277684</v>
       </c>
     </row>
